--- a/Code/Results/Cases/Case_2_193/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_193/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9018103013776226</v>
+        <v>0.2830598511410756</v>
       </c>
       <c r="C2">
-        <v>0.1509896943155553</v>
+        <v>0.06452926745294008</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.397704144759544</v>
+        <v>0.421958101597582</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.1611208186648341</v>
+        <v>0.2614843200896999</v>
       </c>
       <c r="H2">
-        <v>0.1700128221916799</v>
+        <v>0.4448408548528633</v>
       </c>
       <c r="I2">
-        <v>0.1307804591803325</v>
+        <v>0.3275972041486064</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9834726591543017</v>
+        <v>0.3034573273221213</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5897037036078316</v>
+        <v>1.024950686546191</v>
       </c>
       <c r="O2">
-        <v>0.6475865376806382</v>
+        <v>1.332988765104815</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7871820234776692</v>
+        <v>0.2472426830551626</v>
       </c>
       <c r="C3">
-        <v>0.1350468481776801</v>
+        <v>0.05941881472426758</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.203071469117404</v>
+        <v>0.3682353146068067</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.1554230817914899</v>
+        <v>0.2631787881475347</v>
       </c>
       <c r="H3">
-        <v>0.1726051469932131</v>
+        <v>0.4488222816131326</v>
       </c>
       <c r="I3">
-        <v>0.1358275975381016</v>
+        <v>0.3320083991610137</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8615201575544518</v>
+        <v>0.2649728001601943</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6083958802850908</v>
+        <v>1.033539013173417</v>
       </c>
       <c r="O3">
-        <v>0.640621801988388</v>
+        <v>1.344704553376033</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7167738536703894</v>
+        <v>0.2251901798649101</v>
       </c>
       <c r="C4">
-        <v>0.1252582392245216</v>
+        <v>0.05625834988970269</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.085335948957308</v>
+        <v>0.3353193148865472</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.152499778811837</v>
+        <v>0.2644492813688899</v>
       </c>
       <c r="H4">
-        <v>0.1745645928298671</v>
+        <v>0.4514755866007647</v>
       </c>
       <c r="I4">
-        <v>0.1393377243420595</v>
+        <v>0.3349209906004429</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7866039761301948</v>
+        <v>0.241246678301593</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6206182684047903</v>
+        <v>1.039184287165835</v>
       </c>
       <c r="O4">
-        <v>0.6383275977920704</v>
+        <v>1.352815633331844</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6880677933582149</v>
+        <v>0.2161889182791867</v>
       </c>
       <c r="C5">
-        <v>0.1212677324618738</v>
+        <v>0.05496479153846678</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.037736677648454</v>
+        <v>0.3219221104235714</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.1514443541018764</v>
+        <v>0.2650247193501727</v>
       </c>
       <c r="H5">
-        <v>0.1754518499173017</v>
+        <v>0.4526093027551141</v>
       </c>
       <c r="I5">
-        <v>0.1408671476525729</v>
+        <v>0.3361591594807223</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7560568525759379</v>
+        <v>0.2315543691354804</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6257815963122333</v>
+        <v>1.041578402895173</v>
       </c>
       <c r="O5">
-        <v>0.6378647378284796</v>
+        <v>1.356351344368463</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6833001053940961</v>
+        <v>0.2146933949222785</v>
       </c>
       <c r="C6">
-        <v>0.1206049709163182</v>
+        <v>0.05474965768905804</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.02985389695715</v>
+        <v>0.3196984642130616</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.1512770584346725</v>
+        <v>0.2651237509034061</v>
       </c>
       <c r="H6">
-        <v>0.1756044348702872</v>
+        <v>0.4528007245607526</v>
       </c>
       <c r="I6">
-        <v>0.1411269638483237</v>
+        <v>0.3363678510065142</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7509831799423381</v>
+        <v>0.2299435516247001</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6266498557724347</v>
+        <v>1.041981600751896</v>
       </c>
       <c r="O6">
-        <v>0.6378156453601633</v>
+        <v>1.356952350877833</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7163867807541351</v>
+        <v>0.2250688444366347</v>
       </c>
       <c r="C7">
-        <v>0.1252044303130475</v>
+        <v>0.0562409272977078</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.084692558289248</v>
+        <v>0.3351385710433163</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.1524850062173044</v>
+        <v>0.264456808500853</v>
       </c>
       <c r="H7">
-        <v>0.1745762040313963</v>
+        <v>0.4514906638393015</v>
       </c>
       <c r="I7">
-        <v>0.1393579553814561</v>
+        <v>0.3349374814899235</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7861920918407463</v>
+        <v>0.2411160597690127</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6206871696667164</v>
+        <v>1.039216195879266</v>
       </c>
       <c r="O7">
-        <v>0.638319478064588</v>
+        <v>1.352862384824164</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8622870652223469</v>
+        <v>0.2707229947996836</v>
       </c>
       <c r="C8">
-        <v>0.1454914821700299</v>
+        <v>0.06277190566703439</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.330186141444585</v>
+        <v>0.4034191731270909</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.1590314415783638</v>
+        <v>0.2620207255325369</v>
       </c>
       <c r="H8">
-        <v>0.1708280383743528</v>
+        <v>0.4461703337591629</v>
       </c>
       <c r="I8">
-        <v>0.1324326781389047</v>
+        <v>0.3290757884598641</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.941425497442907</v>
+        <v>0.290208193630292</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5959911095625543</v>
+        <v>1.027834777289677</v>
       </c>
       <c r="O8">
-        <v>0.644757377075166</v>
+        <v>1.33683772678053</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.148576172528209</v>
+        <v>0.3597494917518702</v>
       </c>
       <c r="C9">
-        <v>0.1853607220323426</v>
+        <v>0.07539815445854003</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.828904363154578</v>
+        <v>0.5379362583876031</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.176852978163005</v>
+        <v>0.259076384846864</v>
       </c>
       <c r="H9">
-        <v>0.1665730056392647</v>
+        <v>0.4373933171661477</v>
       </c>
       <c r="I9">
-        <v>0.1223224076756892</v>
+        <v>0.3192030159756687</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.245993777638745</v>
+        <v>0.385693239844727</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5537035856876003</v>
+        <v>1.008464164995068</v>
       </c>
       <c r="O9">
-        <v>0.674373391671125</v>
+        <v>1.312709704436614</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.359620267761329</v>
+        <v>0.4248308193372736</v>
       </c>
       <c r="C10">
-        <v>0.2148354669324704</v>
+        <v>0.08456323805377508</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.210881032609024</v>
+        <v>0.6372402226762546</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.193609912884277</v>
+        <v>0.2580408170021329</v>
       </c>
       <c r="H10">
-        <v>0.1655963968661425</v>
+        <v>0.4319548719334207</v>
       </c>
       <c r="I10">
-        <v>0.1173159500882974</v>
+        <v>0.3129417071646508</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.470552377318569</v>
+        <v>0.455348829125569</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5267119226859194</v>
+        <v>0.9960253494081215</v>
       </c>
       <c r="O10">
-        <v>0.7083673539637232</v>
+        <v>1.299453876779353</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.455930198237013</v>
+        <v>0.4543630593797729</v>
       </c>
       <c r="C11">
-        <v>0.2283165915482357</v>
+        <v>0.08870830162301502</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.389292712307892</v>
+        <v>0.6825405946669605</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.2021790973057662</v>
+        <v>0.2578168075535743</v>
       </c>
       <c r="H11">
-        <v>0.1656820570033943</v>
+        <v>0.4297002065642488</v>
       </c>
       <c r="I11">
-        <v>0.1156373019232184</v>
+        <v>0.3103094616895987</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.57305385203739</v>
+        <v>0.4869253491602308</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5153969669245768</v>
+        <v>0.9907549757332319</v>
       </c>
       <c r="O11">
-        <v>0.7269406239176703</v>
+        <v>1.294399339933463</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.492457116878967</v>
+        <v>0.4655350867656125</v>
       </c>
       <c r="C12">
-        <v>0.2334350185860643</v>
+        <v>0.09027441789704937</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.457639170139245</v>
+        <v>0.6997144006774505</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.2055737879216295</v>
+        <v>0.2577676866868899</v>
       </c>
       <c r="H12">
-        <v>0.1657964450161487</v>
+        <v>0.4288779725042744</v>
       </c>
       <c r="I12">
-        <v>0.1150943744127595</v>
+        <v>0.3093438334091729</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.611933981443116</v>
+        <v>0.4988662589130684</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5112579996243269</v>
+        <v>0.9888149717105179</v>
       </c>
       <c r="O12">
-        <v>0.7344620061288794</v>
+        <v>1.292626014630073</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.484587668332836</v>
+        <v>0.4631294981970484</v>
       </c>
       <c r="C13">
-        <v>0.2323320268836113</v>
+        <v>0.08993728453690153</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.442882577103319</v>
+        <v>0.6960148237615016</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.2048357922163362</v>
+        <v>0.2577766748561316</v>
       </c>
       <c r="H13">
-        <v>0.1657680682294753</v>
+        <v>0.4290536513773517</v>
       </c>
       <c r="I13">
-        <v>0.1152070678960619</v>
+        <v>0.3095504122768205</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.603557304210796</v>
+        <v>0.4962953106370662</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5121427979436604</v>
+        <v>0.9892303063681496</v>
       </c>
       <c r="O13">
-        <v>0.7328197454905307</v>
+        <v>1.293001666676759</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.458934082450099</v>
+        <v>0.4552824165704692</v>
       </c>
       <c r="C14">
-        <v>0.2287374007821654</v>
+        <v>0.0888372179826149</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.394899148112685</v>
+        <v>0.683953094698623</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.2024552976828531</v>
+        <v>0.2578120497196252</v>
       </c>
       <c r="H14">
-        <v>0.1656897907849313</v>
+        <v>0.4296319282599015</v>
       </c>
       <c r="I14">
-        <v>0.1155907365104163</v>
+        <v>0.3102293942142751</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.576251149566133</v>
+        <v>0.4879080677260959</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5150534874500536</v>
+        <v>0.9905942528810101</v>
       </c>
       <c r="O14">
-        <v>0.7275493838535425</v>
+        <v>1.294250624743938</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.443228263726098</v>
+        <v>0.4504743770137623</v>
       </c>
       <c r="C15">
-        <v>0.2265374283068127</v>
+        <v>0.08816293427967992</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.365613957386046</v>
+        <v>0.6765675219679395</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.201017098717692</v>
+        <v>0.2578383731709764</v>
       </c>
       <c r="H15">
-        <v>0.1656526944529162</v>
+        <v>0.4299902500981432</v>
       </c>
       <c r="I15">
-        <v>0.1158380275461752</v>
+        <v>0.3106493486802329</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.5595342791012</v>
+        <v>0.4827684816247029</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5168555726702024</v>
+        <v>0.991436971626527</v>
       </c>
       <c r="O15">
-        <v>0.7243859719708183</v>
+        <v>1.295033985964196</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.353333373404269</v>
+        <v>0.4228992851685973</v>
       </c>
       <c r="C16">
-        <v>0.2139561546019593</v>
+        <v>0.08429185737027467</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.199324690974052</v>
+        <v>0.6342823973682101</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.1930700808548238</v>
+        <v>0.2580604435123277</v>
       </c>
       <c r="H16">
-        <v>0.1656019431721489</v>
+        <v>0.4321066345942555</v>
       </c>
       <c r="I16">
-        <v>0.117438258922089</v>
+        <v>0.313118084800486</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.463861923166206</v>
+        <v>0.4532829619531071</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5274713767120502</v>
+        <v>0.996377587173285</v>
       </c>
       <c r="O16">
-        <v>0.7072195415087634</v>
+        <v>1.299803870830971</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.298272469819352</v>
+        <v>0.4059635789577953</v>
       </c>
       <c r="C17">
-        <v>0.2062586161928266</v>
+        <v>0.08191084686997385</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.098581738398664</v>
+        <v>0.6083751992738655</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.188446593588111</v>
+        <v>0.2582600847636556</v>
       </c>
       <c r="H17">
-        <v>0.165710482920872</v>
+        <v>0.4334611542938589</v>
       </c>
       <c r="I17">
-        <v>0.1185778832428639</v>
+        <v>0.3146879664658009</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.40526949975046</v>
+        <v>0.4351659147870635</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5342356140157278</v>
+        <v>0.9995078707544351</v>
       </c>
       <c r="O17">
-        <v>0.6975129807088649</v>
+        <v>1.302980220451758</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.266630775057166</v>
+        <v>0.3962157191526217</v>
       </c>
       <c r="C18">
-        <v>0.2018378656687361</v>
+        <v>0.08053907988750098</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.041066853169198</v>
+        <v>0.5934858899798314</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.1858754838094328</v>
+        <v>0.258398158444578</v>
       </c>
       <c r="H18">
-        <v>0.1658224210166637</v>
+        <v>0.4342608793967599</v>
       </c>
       <c r="I18">
-        <v>0.1192893029445585</v>
+        <v>0.3156112523830288</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.371600530390396</v>
+        <v>0.4247351352995281</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5382164734808441</v>
+        <v>1.001344859470123</v>
       </c>
       <c r="O18">
-        <v>0.6922200400256742</v>
+        <v>1.304898975765482</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.255921864164009</v>
+        <v>0.3929140966349962</v>
       </c>
       <c r="C19">
-        <v>0.2003421367259648</v>
+        <v>0.08007423441850392</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.021663750518513</v>
+        <v>0.5884466158371424</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.1850197004351486</v>
+        <v>0.2584488948169792</v>
       </c>
       <c r="H19">
-        <v>0.1658686567660084</v>
+        <v>0.4345351970544655</v>
       </c>
       <c r="I19">
-        <v>0.1195395908024039</v>
+        <v>0.3159273507292788</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.360205833248841</v>
+        <v>0.4212016959421305</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5395796133134496</v>
+        <v>1.001973107937623</v>
       </c>
       <c r="O19">
-        <v>0.6904765562348558</v>
+        <v>1.305564387604591</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.304130823869286</v>
+        <v>0.4077671312568896</v>
       </c>
       <c r="C20">
-        <v>0.2070773217246398</v>
+        <v>0.08216454510075266</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.109260706179825</v>
+        <v>0.6111318310836538</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.1889295482611786</v>
+        <v>0.2582364255222984</v>
       </c>
       <c r="H20">
-        <v>0.1656937645126462</v>
+        <v>0.4333148269122162</v>
       </c>
       <c r="I20">
-        <v>0.1184507324725139</v>
+        <v>0.3145187450866018</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.411503364081142</v>
+        <v>0.4370955791240192</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5335061584564329</v>
+        <v>0.99917086603336</v>
       </c>
       <c r="O20">
-        <v>0.6985159586911891</v>
+        <v>1.302632588247491</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.466467524638688</v>
+        <v>0.4575876032357655</v>
       </c>
       <c r="C21">
-        <v>0.2297928405027108</v>
+        <v>0.08916043039720023</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.408970716314599</v>
+        <v>0.6874953758624542</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.2031503288257497</v>
+        <v>0.257800688782325</v>
       </c>
       <c r="H21">
-        <v>0.1657105105382897</v>
+        <v>0.4294612176468604</v>
       </c>
       <c r="I21">
-        <v>0.1154754714311252</v>
+        <v>0.3100291148501526</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.584269737833466</v>
+        <v>0.4903720549853006</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.514194531813466</v>
+        <v>0.9901921153696094</v>
       </c>
       <c r="O21">
-        <v>0.7290838269776287</v>
+        <v>1.293879953027144</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.572899607832511</v>
+        <v>0.4900826497917024</v>
       </c>
       <c r="C22">
-        <v>0.2447185503629612</v>
+        <v>0.09371205003698435</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.609493240468808</v>
+        <v>0.7375178820264097</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.2133243103400133</v>
+        <v>0.2577241176244698</v>
       </c>
       <c r="H22">
-        <v>0.1662021358014343</v>
+        <v>0.4271266205647422</v>
       </c>
       <c r="I22">
-        <v>0.1140749783599659</v>
+        <v>0.3072764604619422</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.69756966271089</v>
+        <v>0.5250952529825383</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5024265627620466</v>
+        <v>0.984649050089665</v>
       </c>
       <c r="O22">
-        <v>0.7519281449520037</v>
+        <v>1.288980011487695</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.516059619516369</v>
+        <v>0.4727456274813164</v>
       </c>
       <c r="C23">
-        <v>0.2367440623149548</v>
+        <v>0.09128466674539482</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.502003293724741</v>
+        <v>0.7108090035271744</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.2078089507486496</v>
+        <v>0.2577458754264015</v>
       </c>
       <c r="H23">
-        <v>0.165893740857932</v>
+        <v>0.4283557992321363</v>
       </c>
       <c r="I23">
-        <v>0.1147703448863986</v>
+        <v>0.3087289638361419</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.637058632090771</v>
+        <v>0.5065718136214059</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5086267706692169</v>
+        <v>0.987577756179995</v>
       </c>
       <c r="O23">
-        <v>0.7394589884457758</v>
+        <v>1.291519993462771</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.301482220728843</v>
+        <v>0.406951780403972</v>
       </c>
       <c r="C24">
-        <v>0.2067071706352124</v>
+        <v>0.08204985713648227</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.104431496489084</v>
+        <v>0.6098855421311811</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.1887109345024385</v>
+        <v>0.2582470493083875</v>
       </c>
       <c r="H24">
-        <v>0.1657011690369359</v>
+        <v>0.4333809161268292</v>
       </c>
       <c r="I24">
-        <v>0.1185080426732981</v>
+        <v>0.3145951854730384</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.408684983435762</v>
+        <v>0.4362232247056568</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5338356592640068</v>
+        <v>0.9993231095286887</v>
       </c>
       <c r="O24">
-        <v>0.6980616199353307</v>
+        <v>1.302789464258268</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.071049330302429</v>
+        <v>0.3357212845599236</v>
       </c>
       <c r="C25">
-        <v>0.1745530923778489</v>
+        <v>0.07200190853740196</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.691646497606982</v>
+        <v>0.5014695623254113</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.1714363766850298</v>
+        <v>0.2596756265226148</v>
       </c>
       <c r="H25">
-        <v>0.1673667577022329</v>
+        <v>0.4395903921093307</v>
       </c>
       <c r="I25">
-        <v>0.1246556367965841</v>
+        <v>0.3216998658515564</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.163514808867575</v>
+        <v>0.3599479609389959</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5644529089167918</v>
+        <v>1.013389278294184</v>
       </c>
       <c r="O25">
-        <v>0.6643567762910152</v>
+        <v>1.318453480784768</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_193/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_193/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2830598511410756</v>
+        <v>0.9018103013775658</v>
       </c>
       <c r="C2">
-        <v>0.06452926745294008</v>
+        <v>0.1509896943155553</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.421958101597582</v>
+        <v>1.397704144759572</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.2614843200896999</v>
+        <v>0.1611208186648199</v>
       </c>
       <c r="H2">
-        <v>0.4448408548528633</v>
+        <v>0.1700128221915591</v>
       </c>
       <c r="I2">
-        <v>0.3275972041486064</v>
+        <v>0.1307804591803485</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3034573273221213</v>
+        <v>0.9834726591541596</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.024950686546191</v>
+        <v>0.5897037036078743</v>
       </c>
       <c r="O2">
-        <v>1.332988765104815</v>
+        <v>0.6475865376806098</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2472426830551626</v>
+        <v>0.7871820234777545</v>
       </c>
       <c r="C3">
-        <v>0.05941881472426758</v>
+        <v>0.1350468481774243</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3682353146068067</v>
+        <v>1.203071469117404</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.2631787881475347</v>
+        <v>0.1554230817915467</v>
       </c>
       <c r="H3">
-        <v>0.4488222816131326</v>
+        <v>0.1726051469932131</v>
       </c>
       <c r="I3">
-        <v>0.3320083991610137</v>
+        <v>0.1358275975381158</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2649728001601943</v>
+        <v>0.8615201575545086</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.033539013173417</v>
+        <v>0.608395880285137</v>
       </c>
       <c r="O3">
-        <v>1.344704553376033</v>
+        <v>0.6406218019884449</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2251901798649101</v>
+        <v>0.7167738536702757</v>
       </c>
       <c r="C4">
-        <v>0.05625834988970269</v>
+        <v>0.12525823922482</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3353193148865472</v>
+        <v>1.085335948957322</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.2644492813688899</v>
+        <v>0.1524997788118867</v>
       </c>
       <c r="H4">
-        <v>0.4514755866007647</v>
+        <v>0.1745645928299808</v>
       </c>
       <c r="I4">
-        <v>0.3349209906004429</v>
+        <v>0.1393377243420613</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.241246678301593</v>
+        <v>0.7866039761303227</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.039184287165835</v>
+        <v>0.6206182684047334</v>
       </c>
       <c r="O4">
-        <v>1.352815633331844</v>
+        <v>0.6383275977920988</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2161889182791867</v>
+        <v>0.6880677933581296</v>
       </c>
       <c r="C5">
-        <v>0.05496479153846678</v>
+        <v>0.1212677324618738</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3219221104235714</v>
+        <v>1.037736677648482</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.2650247193501727</v>
+        <v>0.1514443541018267</v>
       </c>
       <c r="H5">
-        <v>0.4526093027551141</v>
+        <v>0.1754518499174154</v>
       </c>
       <c r="I5">
-        <v>0.3361591594807223</v>
+        <v>0.1408671476525836</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2315543691354804</v>
+        <v>0.7560568525759663</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.041578402895173</v>
+        <v>0.6257815963122226</v>
       </c>
       <c r="O5">
-        <v>1.356351344368463</v>
+        <v>0.6378647378284654</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2146933949222785</v>
+        <v>0.6833001053938972</v>
       </c>
       <c r="C6">
-        <v>0.05474965768905804</v>
+        <v>0.120604970916105</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3196984642130616</v>
+        <v>1.029853896957164</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.2651237509034061</v>
+        <v>0.1512770584346796</v>
       </c>
       <c r="H6">
-        <v>0.4528007245607526</v>
+        <v>0.1756044348702801</v>
       </c>
       <c r="I6">
-        <v>0.3363678510065142</v>
+        <v>0.1411269638483361</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2299435516247001</v>
+        <v>0.7509831799423381</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.041981600751896</v>
+        <v>0.6266498557724773</v>
       </c>
       <c r="O6">
-        <v>1.356952350877833</v>
+        <v>0.6378156453601491</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2250688444366347</v>
+        <v>0.7163867807541067</v>
       </c>
       <c r="C7">
-        <v>0.0562409272977078</v>
+        <v>0.1252044303132323</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3351385710433163</v>
+        <v>1.084692558289277</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.264456808500853</v>
+        <v>0.1524850062172973</v>
       </c>
       <c r="H7">
-        <v>0.4514906638393015</v>
+        <v>0.1745762040313892</v>
       </c>
       <c r="I7">
-        <v>0.3349374814899235</v>
+        <v>0.1393579553814543</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2411160597690127</v>
+        <v>0.7861920918408316</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.039216195879266</v>
+        <v>0.6206871696666987</v>
       </c>
       <c r="O7">
-        <v>1.352862384824164</v>
+        <v>0.6383194780646306</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2707229947996836</v>
+        <v>0.8622870652222048</v>
       </c>
       <c r="C8">
-        <v>0.06277190566703439</v>
+        <v>0.1454914821697741</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4034191731270909</v>
+        <v>1.330186141444585</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.2620207255325369</v>
+        <v>0.1590314415783709</v>
       </c>
       <c r="H8">
-        <v>0.4461703337591629</v>
+        <v>0.1708280383743599</v>
       </c>
       <c r="I8">
-        <v>0.3290757884598641</v>
+        <v>0.13243267813891</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.290208193630292</v>
+        <v>0.9414254974429355</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.027834777289677</v>
+        <v>0.5959911095625685</v>
       </c>
       <c r="O8">
-        <v>1.33683772678053</v>
+        <v>0.6447573770751802</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3597494917518702</v>
+        <v>1.148576172528266</v>
       </c>
       <c r="C9">
-        <v>0.07539815445854003</v>
+        <v>0.1853607220327689</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5379362583876031</v>
+        <v>1.828904363154578</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.259076384846864</v>
+        <v>0.1768529781631258</v>
       </c>
       <c r="H9">
-        <v>0.4373933171661477</v>
+        <v>0.1665730056392647</v>
       </c>
       <c r="I9">
-        <v>0.3192030159756687</v>
+        <v>0.1223224076756857</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.385693239844727</v>
+        <v>1.245993777638603</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.008464164995068</v>
+        <v>0.5537035856875931</v>
       </c>
       <c r="O9">
-        <v>1.312709704436614</v>
+        <v>0.6743733916711108</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4248308193372736</v>
+        <v>1.359620267761215</v>
       </c>
       <c r="C10">
-        <v>0.08456323805377508</v>
+        <v>0.2148354669322714</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6372402226762546</v>
+        <v>2.210881032609038</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.2580408170021329</v>
+        <v>0.193609912884348</v>
       </c>
       <c r="H10">
-        <v>0.4319548719334207</v>
+        <v>0.1655963968661496</v>
       </c>
       <c r="I10">
-        <v>0.3129417071646508</v>
+        <v>0.117315950088301</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.455348829125569</v>
+        <v>1.47055237731854</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9960253494081215</v>
+        <v>0.5267119226859194</v>
       </c>
       <c r="O10">
-        <v>1.299453876779353</v>
+        <v>0.7083673539637374</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4543630593797729</v>
+        <v>1.455930198236985</v>
       </c>
       <c r="C11">
-        <v>0.08870830162301502</v>
+        <v>0.2283165915483636</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6825405946669605</v>
+        <v>2.38929271230792</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.2578168075535743</v>
+        <v>0.2021790973057591</v>
       </c>
       <c r="H11">
-        <v>0.4297002065642488</v>
+        <v>0.1656820570033943</v>
       </c>
       <c r="I11">
-        <v>0.3103094616895987</v>
+        <v>0.1156373019232326</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4869253491602308</v>
+        <v>1.57305385203739</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9907549757332319</v>
+        <v>0.5153969669245768</v>
       </c>
       <c r="O11">
-        <v>1.294399339933463</v>
+        <v>0.7269406239176703</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4655350867656125</v>
+        <v>1.492457116878882</v>
       </c>
       <c r="C12">
-        <v>0.09027441789704937</v>
+        <v>0.2334350185860927</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6997144006774505</v>
+        <v>2.457639170139217</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.2577676866868899</v>
+        <v>0.2055737879216935</v>
       </c>
       <c r="H12">
-        <v>0.4288779725042744</v>
+        <v>0.165796445016035</v>
       </c>
       <c r="I12">
-        <v>0.3093438334091729</v>
+        <v>0.1150943744127595</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4988662589130684</v>
+        <v>1.61193398144303</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9888149717105179</v>
+        <v>0.5112579996243269</v>
       </c>
       <c r="O12">
-        <v>1.292626014630073</v>
+        <v>0.7344620061287799</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4631294981970484</v>
+        <v>1.484587668332836</v>
       </c>
       <c r="C13">
-        <v>0.08993728453690153</v>
+        <v>0.2323320268836113</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6960148237615016</v>
+        <v>2.442882577103319</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.2577766748561316</v>
+        <v>0.2048357922164001</v>
       </c>
       <c r="H13">
-        <v>0.4290536513773517</v>
+        <v>0.1657680682294753</v>
       </c>
       <c r="I13">
-        <v>0.3095504122768205</v>
+        <v>0.1152070678960477</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4962953106370662</v>
+        <v>1.603557304210625</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9892303063681496</v>
+        <v>0.5121427979437243</v>
       </c>
       <c r="O13">
-        <v>1.293001666676759</v>
+        <v>0.7328197454904597</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4552824165704692</v>
+        <v>1.458934082449986</v>
       </c>
       <c r="C14">
-        <v>0.0888372179826149</v>
+        <v>0.2287374007820944</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.683953094698623</v>
+        <v>2.394899148112728</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.2578120497196252</v>
+        <v>0.2024552976828531</v>
       </c>
       <c r="H14">
-        <v>0.4296319282599015</v>
+        <v>0.1656897907849313</v>
       </c>
       <c r="I14">
-        <v>0.3102293942142751</v>
+        <v>0.115590736510427</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4879080677260959</v>
+        <v>1.576251149566104</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9905942528810101</v>
+        <v>0.5150534874500963</v>
       </c>
       <c r="O14">
-        <v>1.294250624743938</v>
+        <v>0.7275493838536136</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4504743770137623</v>
+        <v>1.44322826372607</v>
       </c>
       <c r="C15">
-        <v>0.08816293427967992</v>
+        <v>0.2265374283067558</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6765675219679395</v>
+        <v>2.365613957386074</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.2578383731709764</v>
+        <v>0.2010170987177489</v>
       </c>
       <c r="H15">
-        <v>0.4299902500981432</v>
+        <v>0.1656526944529233</v>
       </c>
       <c r="I15">
-        <v>0.3106493486802329</v>
+        <v>0.1158380275461788</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4827684816247029</v>
+        <v>1.559534279101342</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.991436971626527</v>
+        <v>0.5168555726702024</v>
       </c>
       <c r="O15">
-        <v>1.295033985964196</v>
+        <v>0.7243859719708183</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4228992851685973</v>
+        <v>1.353333373404496</v>
       </c>
       <c r="C16">
-        <v>0.08429185737027467</v>
+        <v>0.2139561546021582</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6342823973682101</v>
+        <v>2.19932469097408</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.2580604435123277</v>
+        <v>0.1930700808548451</v>
       </c>
       <c r="H16">
-        <v>0.4321066345942555</v>
+        <v>0.1656019431722697</v>
       </c>
       <c r="I16">
-        <v>0.313118084800486</v>
+        <v>0.1174382589220819</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4532829619531071</v>
+        <v>1.463861923166206</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.996377587173285</v>
+        <v>0.5274713767120431</v>
       </c>
       <c r="O16">
-        <v>1.299803870830971</v>
+        <v>0.7072195415087492</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4059635789577953</v>
+        <v>1.298272469819352</v>
       </c>
       <c r="C17">
-        <v>0.08191084686997385</v>
+        <v>0.206258616192784</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6083751992738655</v>
+        <v>2.098581738398721</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.2582600847636556</v>
+        <v>0.1884465935880613</v>
       </c>
       <c r="H17">
-        <v>0.4334611542938589</v>
+        <v>0.165710482920872</v>
       </c>
       <c r="I17">
-        <v>0.3146879664658009</v>
+        <v>0.1185778832428745</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4351659147870635</v>
+        <v>1.405269499750347</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9995078707544351</v>
+        <v>0.5342356140156639</v>
       </c>
       <c r="O17">
-        <v>1.302980220451758</v>
+        <v>0.6975129807088507</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3962157191526217</v>
+        <v>1.266630775057166</v>
       </c>
       <c r="C18">
-        <v>0.08053907988750098</v>
+        <v>0.2018378656689066</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5934858899798314</v>
+        <v>2.041066853169212</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.258398158444578</v>
+        <v>0.1858754838093688</v>
       </c>
       <c r="H18">
-        <v>0.4342608793967599</v>
+        <v>0.1658224210166708</v>
       </c>
       <c r="I18">
-        <v>0.3156112523830288</v>
+        <v>0.1192893029445621</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4247351352995281</v>
+        <v>1.371600530390424</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.001344859470123</v>
+        <v>0.5382164734808512</v>
       </c>
       <c r="O18">
-        <v>1.304898975765482</v>
+        <v>0.6922200400256884</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3929140966349962</v>
+        <v>1.255921864164037</v>
       </c>
       <c r="C19">
-        <v>0.08007423441850392</v>
+        <v>0.2003421367264764</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5884466158371424</v>
+        <v>2.021663750518513</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.2584488948169792</v>
+        <v>0.1850197004351557</v>
       </c>
       <c r="H19">
-        <v>0.4345351970544655</v>
+        <v>0.1658686567660084</v>
       </c>
       <c r="I19">
-        <v>0.3159273507292788</v>
+        <v>0.1195395908024182</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4212016959421305</v>
+        <v>1.360205833248784</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.001973107937623</v>
+        <v>0.5395796133133928</v>
       </c>
       <c r="O19">
-        <v>1.305564387604591</v>
+        <v>0.690476556234799</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4077671312568896</v>
+        <v>1.304130823869059</v>
       </c>
       <c r="C20">
-        <v>0.08216454510075266</v>
+        <v>0.2070773217241708</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6111318310836538</v>
+        <v>2.109260706179839</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.2582364255222984</v>
+        <v>0.1889295482612354</v>
       </c>
       <c r="H20">
-        <v>0.4333148269122162</v>
+        <v>0.1656937645125325</v>
       </c>
       <c r="I20">
-        <v>0.3145187450866018</v>
+        <v>0.1184507324724997</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4370955791240192</v>
+        <v>1.411503364081341</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.99917086603336</v>
+        <v>0.5335061584563761</v>
       </c>
       <c r="O20">
-        <v>1.302632588247491</v>
+        <v>0.6985159586912317</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4575876032357655</v>
+        <v>1.466467524638716</v>
       </c>
       <c r="C21">
-        <v>0.08916043039720023</v>
+        <v>0.2297928405023981</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6874953758624542</v>
+        <v>2.408970716314585</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.257800688782325</v>
+        <v>0.2031503288257994</v>
       </c>
       <c r="H21">
-        <v>0.4294612176468604</v>
+        <v>0.1657105105382897</v>
       </c>
       <c r="I21">
-        <v>0.3100291148501526</v>
+        <v>0.1154754714311252</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4903720549853006</v>
+        <v>1.584269737833409</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9901921153696094</v>
+        <v>0.5141945318135228</v>
       </c>
       <c r="O21">
-        <v>1.293879953027144</v>
+        <v>0.7290838269775719</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4900826497917024</v>
+        <v>1.572899607832369</v>
       </c>
       <c r="C22">
-        <v>0.09371205003698435</v>
+        <v>0.2447185503634017</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7375178820264097</v>
+        <v>2.609493240468808</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.2577241176244698</v>
+        <v>0.2133243103400275</v>
       </c>
       <c r="H22">
-        <v>0.4271266205647422</v>
+        <v>0.1662021358013135</v>
       </c>
       <c r="I22">
-        <v>0.3072764604619422</v>
+        <v>0.1140749783599624</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5250952529825383</v>
+        <v>1.697569662711004</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.984649050089665</v>
+        <v>0.5024265627620466</v>
       </c>
       <c r="O22">
-        <v>1.288980011487695</v>
+        <v>0.7519281449520037</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4727456274813164</v>
+        <v>1.516059619516341</v>
       </c>
       <c r="C23">
-        <v>0.09128466674539482</v>
+        <v>0.2367440623147701</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7108090035271744</v>
+        <v>2.502003293724798</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.2577458754264015</v>
+        <v>0.2078089507485785</v>
       </c>
       <c r="H23">
-        <v>0.4283557992321363</v>
+        <v>0.165893740857932</v>
       </c>
       <c r="I23">
-        <v>0.3087289638361419</v>
+        <v>0.1147703448864092</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5065718136214059</v>
+        <v>1.637058632090685</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.987577756179995</v>
+        <v>0.5086267706692666</v>
       </c>
       <c r="O23">
-        <v>1.291519993462771</v>
+        <v>0.7394589884457048</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.406951780403972</v>
+        <v>1.301482220728843</v>
       </c>
       <c r="C24">
-        <v>0.08204985713648227</v>
+        <v>0.2067071706349708</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6098855421311811</v>
+        <v>2.104431496489113</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.2582470493083875</v>
+        <v>0.1887109345024456</v>
       </c>
       <c r="H24">
-        <v>0.4333809161268292</v>
+        <v>0.1657011690369359</v>
       </c>
       <c r="I24">
-        <v>0.3145951854730384</v>
+        <v>0.1185080426732981</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4362232247056568</v>
+        <v>1.408684983435762</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9993231095286887</v>
+        <v>0.5338356592639926</v>
       </c>
       <c r="O24">
-        <v>1.302789464258268</v>
+        <v>0.6980616199353165</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3357212845599236</v>
+        <v>1.071049330302316</v>
       </c>
       <c r="C25">
-        <v>0.07200190853740196</v>
+        <v>0.1745530923778489</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5014695623254113</v>
+        <v>1.691646497606996</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.2596756265226148</v>
+        <v>0.17143637668498</v>
       </c>
       <c r="H25">
-        <v>0.4395903921093307</v>
+        <v>0.1673667577022258</v>
       </c>
       <c r="I25">
-        <v>0.3216998658515564</v>
+        <v>0.1246556367965841</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3599479609389959</v>
+        <v>1.163514808867575</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.013389278294184</v>
+        <v>0.5644529089168486</v>
       </c>
       <c r="O25">
-        <v>1.318453480784768</v>
+        <v>0.6643567762910152</v>
       </c>
     </row>
   </sheetData>
